--- a/src/r_q_pronosticos_escenarios.xlsx
+++ b/src/r_q_pronosticos_escenarios.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>48201192.54</v>
+        <v>41505818.38</v>
       </c>
       <c r="C2">
-        <v>27435</v>
+        <v>27033</v>
       </c>
       <c r="D2">
-        <v>3449</v>
+        <v>3564</v>
       </c>
       <c r="E2">
-        <v>1163</v>
+        <v>1468</v>
       </c>
       <c r="F2">
-        <v>2192</v>
+        <v>2798</v>
       </c>
       <c r="G2">
-        <v>30338</v>
+        <v>29887</v>
       </c>
       <c r="H2">
-        <v>74812860</v>
+        <v>68586817</v>
       </c>
       <c r="I2">
-        <v>222593.9830955477</v>
+        <v>233172.854876534</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -461,28 +461,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>38760799.96</v>
+        <v>47724145.96</v>
       </c>
       <c r="C3">
-        <v>27040</v>
+        <v>27274</v>
       </c>
       <c r="D3">
-        <v>3437</v>
+        <v>3339</v>
       </c>
       <c r="E3">
-        <v>1451</v>
+        <v>1278</v>
       </c>
       <c r="F3">
-        <v>2708</v>
+        <v>2459</v>
       </c>
       <c r="G3">
-        <v>29879</v>
+        <v>30147</v>
       </c>
       <c r="H3">
-        <v>75551879</v>
+        <v>69772733</v>
       </c>
       <c r="I3">
-        <v>226341.7455989611</v>
+        <v>224596.1419882804</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -490,28 +490,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>33668690.28</v>
+        <v>42881519.38</v>
       </c>
       <c r="C4">
-        <v>27426</v>
+        <v>27280</v>
       </c>
       <c r="D4">
-        <v>3421</v>
+        <v>3504</v>
       </c>
       <c r="E4">
-        <v>1146</v>
+        <v>1302</v>
       </c>
       <c r="F4">
-        <v>2497</v>
+        <v>2489</v>
       </c>
       <c r="G4">
-        <v>30373</v>
+        <v>30096</v>
       </c>
       <c r="H4">
-        <v>78276490</v>
+        <v>73569420</v>
       </c>
       <c r="I4">
-        <v>214395.7996588301</v>
+        <v>220813.888100544</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -519,28 +519,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>40517116.22</v>
+        <v>34943978.64</v>
       </c>
       <c r="C5">
-        <v>27197</v>
+        <v>27351</v>
       </c>
       <c r="D5">
-        <v>3787</v>
+        <v>3773</v>
       </c>
       <c r="E5">
-        <v>1297</v>
+        <v>1404</v>
       </c>
       <c r="F5">
-        <v>2517</v>
+        <v>2654</v>
       </c>
       <c r="G5">
-        <v>29979</v>
+        <v>30302</v>
       </c>
       <c r="H5">
-        <v>72146770</v>
+        <v>76078990</v>
       </c>
       <c r="I5">
-        <v>227339.195805047</v>
+        <v>216051.3437805327</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -548,28 +548,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>50907878.18000001</v>
+        <v>44497327.8</v>
       </c>
       <c r="C6">
-        <v>27109</v>
+        <v>27277</v>
       </c>
       <c r="D6">
-        <v>3838</v>
+        <v>3590</v>
       </c>
       <c r="E6">
-        <v>1474</v>
+        <v>1342</v>
       </c>
       <c r="F6">
-        <v>2548</v>
+        <v>2638</v>
       </c>
       <c r="G6">
-        <v>29851</v>
+        <v>30016</v>
       </c>
       <c r="H6">
-        <v>69256912</v>
+        <v>68074388</v>
       </c>
       <c r="I6">
-        <v>226429.5831832224</v>
+        <v>237565.6865973434</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -577,28 +577,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>42914176.38</v>
+        <v>48009501.22</v>
       </c>
       <c r="C7">
-        <v>26969</v>
+        <v>27251</v>
       </c>
       <c r="D7">
-        <v>3436</v>
+        <v>3336</v>
       </c>
       <c r="E7">
-        <v>1450</v>
+        <v>1322</v>
       </c>
       <c r="F7">
-        <v>2836</v>
+        <v>2691</v>
       </c>
       <c r="G7">
-        <v>29693</v>
+        <v>29954</v>
       </c>
       <c r="H7">
-        <v>70027597</v>
+        <v>70727963</v>
       </c>
       <c r="I7">
-        <v>220079.3156544123</v>
+        <v>232025.1699331583</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -606,28 +606,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>50091925.64</v>
+        <v>51202639.12</v>
       </c>
       <c r="C8">
-        <v>27655</v>
+        <v>27420</v>
       </c>
       <c r="D8">
-        <v>3322</v>
+        <v>3399</v>
       </c>
       <c r="E8">
-        <v>1245</v>
+        <v>1330</v>
       </c>
       <c r="F8">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="G8">
-        <v>30425</v>
+        <v>30245</v>
       </c>
       <c r="H8">
-        <v>70764227</v>
+        <v>70862890</v>
       </c>
       <c r="I8">
-        <v>230574.1831119074</v>
+        <v>233881.5359876788</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -635,28 +635,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>51344342.64</v>
+        <v>52239188.64</v>
       </c>
       <c r="C9">
-        <v>27471</v>
+        <v>27412</v>
       </c>
       <c r="D9">
-        <v>3652</v>
+        <v>3219</v>
       </c>
       <c r="E9">
-        <v>1190</v>
+        <v>1208</v>
       </c>
       <c r="F9">
-        <v>2345</v>
+        <v>2357</v>
       </c>
       <c r="G9">
-        <v>30369</v>
+        <v>30115</v>
       </c>
       <c r="H9">
-        <v>68815133</v>
+        <v>73776775</v>
       </c>
       <c r="I9">
-        <v>240471.6237334731</v>
+        <v>230452.5412676219</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -664,28 +664,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>43156049.64</v>
+        <v>29379580.38</v>
       </c>
       <c r="C10">
-        <v>27204</v>
+        <v>27130</v>
       </c>
       <c r="D10">
-        <v>3236</v>
+        <v>3451</v>
       </c>
       <c r="E10">
-        <v>1317</v>
+        <v>1357</v>
       </c>
       <c r="F10">
-        <v>2427</v>
+        <v>2868</v>
       </c>
       <c r="G10">
-        <v>30053</v>
+        <v>30061</v>
       </c>
       <c r="H10">
-        <v>74762608</v>
+        <v>74259071</v>
       </c>
       <c r="I10">
-        <v>223176.9844828378</v>
+        <v>211969.7285588594</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -693,28 +693,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>42308133.22</v>
+        <v>46242800.96</v>
       </c>
       <c r="C11">
-        <v>27296</v>
+        <v>27386</v>
       </c>
       <c r="D11">
-        <v>3630</v>
+        <v>3126</v>
       </c>
       <c r="E11">
-        <v>1270</v>
+        <v>1216</v>
       </c>
       <c r="F11">
-        <v>2472</v>
+        <v>2385</v>
       </c>
       <c r="G11">
-        <v>30190</v>
+        <v>30189</v>
       </c>
       <c r="H11">
-        <v>70481344</v>
+        <v>71893441</v>
       </c>
       <c r="I11">
-        <v>229025.6669388646</v>
+        <v>227917.5904716462</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -722,28 +722,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36006758.08</v>
+        <v>41670393.96</v>
       </c>
       <c r="C12">
-        <v>27410</v>
+        <v>27254</v>
       </c>
       <c r="D12">
-        <v>3685</v>
+        <v>3186</v>
       </c>
       <c r="E12">
-        <v>1256</v>
+        <v>1272</v>
       </c>
       <c r="F12">
-        <v>2420</v>
+        <v>2461</v>
       </c>
       <c r="G12">
-        <v>30273</v>
+        <v>30177</v>
       </c>
       <c r="H12">
-        <v>77536741</v>
+        <v>74355615</v>
       </c>
       <c r="I12">
-        <v>230816.9646422903</v>
+        <v>214913.2812256044</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,28 +751,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>53079520.12</v>
+        <v>41955662.8</v>
       </c>
       <c r="C13">
-        <v>27541</v>
+        <v>26942</v>
       </c>
       <c r="D13">
-        <v>3665</v>
+        <v>3818</v>
       </c>
       <c r="E13">
-        <v>1320</v>
+        <v>1411</v>
       </c>
       <c r="F13">
-        <v>2560</v>
+        <v>2841</v>
       </c>
       <c r="G13">
-        <v>30317</v>
+        <v>29723</v>
       </c>
       <c r="H13">
-        <v>69108362</v>
+        <v>66136840</v>
       </c>
       <c r="I13">
-        <v>241289.0654961664</v>
+        <v>226380.4687543966</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,28 +780,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>44390422.96000001</v>
+        <v>46832390.96</v>
       </c>
       <c r="C14">
-        <v>27456</v>
+        <v>27522</v>
       </c>
       <c r="D14">
-        <v>3667</v>
+        <v>3470</v>
       </c>
       <c r="E14">
-        <v>1298</v>
+        <v>1205</v>
       </c>
       <c r="F14">
-        <v>2502</v>
+        <v>2447</v>
       </c>
       <c r="G14">
-        <v>30344</v>
+        <v>30381</v>
       </c>
       <c r="H14">
-        <v>73308152</v>
+        <v>75658218</v>
       </c>
       <c r="I14">
-        <v>233585.9191391672</v>
+        <v>223042.814799671</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,28 +809,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>53370773.8</v>
+        <v>41282106.38</v>
       </c>
       <c r="C15">
-        <v>27491</v>
+        <v>27288</v>
       </c>
       <c r="D15">
-        <v>3583</v>
+        <v>3504</v>
       </c>
       <c r="E15">
-        <v>1325</v>
+        <v>1268</v>
       </c>
       <c r="F15">
-        <v>2474</v>
+        <v>2389</v>
       </c>
       <c r="G15">
-        <v>30223</v>
+        <v>30243</v>
       </c>
       <c r="H15">
-        <v>70211350</v>
+        <v>74663424</v>
       </c>
       <c r="I15">
-        <v>227097.5147211675</v>
+        <v>228669.9010539663</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -838,28 +838,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>43873132.38</v>
+        <v>50880591.8</v>
       </c>
       <c r="C16">
-        <v>27302</v>
+        <v>27481</v>
       </c>
       <c r="D16">
-        <v>3650</v>
+        <v>3546</v>
       </c>
       <c r="E16">
-        <v>1371</v>
+        <v>1222</v>
       </c>
       <c r="F16">
-        <v>2651</v>
+        <v>2226</v>
       </c>
       <c r="G16">
-        <v>30123</v>
+        <v>30350</v>
       </c>
       <c r="H16">
-        <v>67210577</v>
+        <v>71164255</v>
       </c>
       <c r="I16">
-        <v>230761.2890858938</v>
+        <v>227719.0786300657</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -867,28 +867,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>43785161.64</v>
+        <v>45524084.38</v>
       </c>
       <c r="C17">
-        <v>26982</v>
+        <v>27332</v>
       </c>
       <c r="D17">
-        <v>3308</v>
+        <v>3434</v>
       </c>
       <c r="E17">
-        <v>1419</v>
+        <v>1427</v>
       </c>
       <c r="F17">
-        <v>2757</v>
+        <v>2662</v>
       </c>
       <c r="G17">
-        <v>29667</v>
+        <v>30196</v>
       </c>
       <c r="H17">
-        <v>71132461</v>
+        <v>70416022</v>
       </c>
       <c r="I17">
-        <v>225441.0170876204</v>
+        <v>227786.6319006043</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -896,28 +896,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>46862975.64</v>
+        <v>42017445.38</v>
       </c>
       <c r="C18">
-        <v>27378</v>
+        <v>27706</v>
       </c>
       <c r="D18">
-        <v>3526</v>
+        <v>3525</v>
       </c>
       <c r="E18">
-        <v>1397</v>
+        <v>1117</v>
       </c>
       <c r="F18">
-        <v>2540</v>
+        <v>2170</v>
       </c>
       <c r="G18">
-        <v>30231</v>
+        <v>30591</v>
       </c>
       <c r="H18">
-        <v>69475080</v>
+        <v>75140955</v>
       </c>
       <c r="I18">
-        <v>236712.2807510407</v>
+        <v>224051.8588907043</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,28 +925,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>48688020.54000001</v>
+        <v>44989732.38</v>
       </c>
       <c r="C19">
-        <v>27388</v>
+        <v>27095</v>
       </c>
       <c r="D19">
-        <v>3575</v>
+        <v>3612</v>
       </c>
       <c r="E19">
-        <v>1357</v>
+        <v>1317</v>
       </c>
       <c r="F19">
-        <v>2481</v>
+        <v>2568</v>
       </c>
       <c r="G19">
-        <v>30280</v>
+        <v>29787</v>
       </c>
       <c r="H19">
-        <v>68295209</v>
+        <v>74505308</v>
       </c>
       <c r="I19">
-        <v>232502.0746130756</v>
+        <v>238276.0550432121</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>37836253.54000001</v>
+        <v>40359178.96</v>
       </c>
       <c r="C20">
-        <v>27360</v>
+        <v>27301</v>
       </c>
       <c r="D20">
-        <v>3398</v>
+        <v>3687</v>
       </c>
       <c r="E20">
-        <v>1190</v>
+        <v>1374</v>
       </c>
       <c r="F20">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="G20">
-        <v>30250</v>
+        <v>30126</v>
       </c>
       <c r="H20">
-        <v>73866297</v>
+        <v>72382311</v>
       </c>
       <c r="I20">
-        <v>232185.1046649289</v>
+        <v>238305.6223540539</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>50316669.64</v>
+        <v>52236420.8</v>
       </c>
       <c r="C21">
-        <v>27766</v>
+        <v>27445</v>
       </c>
       <c r="D21">
-        <v>3523</v>
+        <v>3697</v>
       </c>
       <c r="E21">
-        <v>1191</v>
+        <v>1222</v>
       </c>
       <c r="F21">
-        <v>2281</v>
+        <v>2415</v>
       </c>
       <c r="G21">
-        <v>30553</v>
+        <v>30293</v>
       </c>
       <c r="H21">
-        <v>75605117</v>
+        <v>67096789</v>
       </c>
       <c r="I21">
-        <v>225092.0117659933</v>
+        <v>232001.2633786943</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>43984777.95999999</v>
+        <v>47870095.54</v>
       </c>
       <c r="C22">
-        <v>27252</v>
+        <v>27354</v>
       </c>
       <c r="D22">
-        <v>3459</v>
+        <v>3316</v>
       </c>
       <c r="E22">
-        <v>1322</v>
+        <v>1281</v>
       </c>
       <c r="F22">
-        <v>2532</v>
+        <v>2460</v>
       </c>
       <c r="G22">
-        <v>30100</v>
+        <v>30090</v>
       </c>
       <c r="H22">
-        <v>72951168</v>
+        <v>72399262</v>
       </c>
       <c r="I22">
-        <v>230132.8636516308</v>
+        <v>229141.7630533569</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>41513298.90000001</v>
+        <v>39351958.64</v>
       </c>
       <c r="C23">
-        <v>27388</v>
+        <v>27190</v>
       </c>
       <c r="D23">
-        <v>3474</v>
+        <v>3693</v>
       </c>
       <c r="E23">
-        <v>1326</v>
+        <v>1284</v>
       </c>
       <c r="F23">
-        <v>2671</v>
+        <v>2594</v>
       </c>
       <c r="G23">
-        <v>30188</v>
+        <v>29936</v>
       </c>
       <c r="H23">
-        <v>68455513</v>
+        <v>75802510</v>
       </c>
       <c r="I23">
-        <v>224271.9305119029</v>
+        <v>231623.6691514523</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>48517324.7</v>
+        <v>40186137.8</v>
       </c>
       <c r="C24">
-        <v>27365</v>
+        <v>27301</v>
       </c>
       <c r="D24">
-        <v>3269</v>
+        <v>3496</v>
       </c>
       <c r="E24">
-        <v>1321</v>
+        <v>1288</v>
       </c>
       <c r="F24">
-        <v>2483</v>
+        <v>2439</v>
       </c>
       <c r="G24">
-        <v>30156</v>
+        <v>30139</v>
       </c>
       <c r="H24">
-        <v>75953230</v>
+        <v>75944849</v>
       </c>
       <c r="I24">
-        <v>227562.8294634317</v>
+        <v>230658.9949451416</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>47179582.22</v>
+        <v>44162386.96</v>
       </c>
       <c r="C25">
-        <v>27449</v>
+        <v>27112</v>
       </c>
       <c r="D25">
-        <v>3547</v>
+        <v>3561</v>
       </c>
       <c r="E25">
-        <v>1320</v>
+        <v>1466</v>
       </c>
       <c r="F25">
-        <v>2593</v>
+        <v>2823</v>
       </c>
       <c r="G25">
-        <v>30250</v>
+        <v>29882</v>
       </c>
       <c r="H25">
-        <v>69455585</v>
+        <v>69764991</v>
       </c>
       <c r="I25">
-        <v>228579.0152553346</v>
+        <v>237105.3540191789</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>54158671.7</v>
+        <v>37209118.96</v>
       </c>
       <c r="C26">
-        <v>27761</v>
+        <v>26807</v>
       </c>
       <c r="D26">
-        <v>3404</v>
+        <v>3401</v>
       </c>
       <c r="E26">
-        <v>1279</v>
+        <v>1530</v>
       </c>
       <c r="F26">
-        <v>2504</v>
+        <v>3001</v>
       </c>
       <c r="G26">
-        <v>30585</v>
+        <v>29619</v>
       </c>
       <c r="H26">
-        <v>68186807</v>
+        <v>68688897</v>
       </c>
       <c r="I26">
-        <v>232937.1959351563</v>
+        <v>218459.8109530056</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>38174372.12</v>
+        <v>36292827.64</v>
       </c>
       <c r="C27">
-        <v>27486</v>
+        <v>26658</v>
       </c>
       <c r="D27">
-        <v>3298</v>
+        <v>3641</v>
       </c>
       <c r="E27">
-        <v>1200</v>
+        <v>1569</v>
       </c>
       <c r="F27">
-        <v>2450</v>
+        <v>3223</v>
       </c>
       <c r="G27">
-        <v>30311</v>
+        <v>29448</v>
       </c>
       <c r="H27">
-        <v>73452490</v>
+        <v>69473555</v>
       </c>
       <c r="I27">
-        <v>226229.9933803224</v>
+        <v>222385.0456410368</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>32398584.95999999</v>
+        <v>51976412.8</v>
       </c>
       <c r="C28">
-        <v>27360</v>
+        <v>27520</v>
       </c>
       <c r="D28">
-        <v>3368</v>
+        <v>3314</v>
       </c>
       <c r="E28">
-        <v>1347</v>
+        <v>1230</v>
       </c>
       <c r="F28">
-        <v>2531</v>
+        <v>2259</v>
       </c>
       <c r="G28">
-        <v>30262</v>
+        <v>30396</v>
       </c>
       <c r="H28">
-        <v>78568218</v>
+        <v>74053339</v>
       </c>
       <c r="I28">
-        <v>210852.3789226897</v>
+        <v>229270.7865706324</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,28 +1215,28 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>34220572.64</v>
+        <v>54961373.38</v>
       </c>
       <c r="C29">
-        <v>27235</v>
+        <v>27357</v>
       </c>
       <c r="D29">
-        <v>3605</v>
+        <v>3490</v>
       </c>
       <c r="E29">
-        <v>1368</v>
+        <v>1254</v>
       </c>
       <c r="F29">
-        <v>2646</v>
+        <v>2393</v>
       </c>
       <c r="G29">
-        <v>29993</v>
+        <v>30212</v>
       </c>
       <c r="H29">
-        <v>76258964</v>
+        <v>69129112</v>
       </c>
       <c r="I29">
-        <v>222917.935629981</v>
+        <v>228801.5679409678</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,28 +1244,28 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>42766101.8</v>
+        <v>43583987.28</v>
       </c>
       <c r="C30">
-        <v>27435</v>
+        <v>27139</v>
       </c>
       <c r="D30">
-        <v>3420</v>
+        <v>3339</v>
       </c>
       <c r="E30">
-        <v>1332</v>
+        <v>1362</v>
       </c>
       <c r="F30">
-        <v>2462</v>
+        <v>2893</v>
       </c>
       <c r="G30">
-        <v>30436</v>
+        <v>29904</v>
       </c>
       <c r="H30">
-        <v>68626360</v>
+        <v>69399398</v>
       </c>
       <c r="I30">
-        <v>228010.140712861</v>
+        <v>232106.6848785871</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>55357480.48</v>
+        <v>38141443.8</v>
       </c>
       <c r="C31">
-        <v>27767</v>
+        <v>27256</v>
       </c>
       <c r="D31">
-        <v>3234</v>
+        <v>3601</v>
       </c>
       <c r="E31">
-        <v>1209</v>
+        <v>1349</v>
       </c>
       <c r="F31">
-        <v>2197</v>
+        <v>2675</v>
       </c>
       <c r="G31">
-        <v>30479</v>
+        <v>30120</v>
       </c>
       <c r="H31">
-        <v>71722564</v>
+        <v>72239172</v>
       </c>
       <c r="I31">
-        <v>226973.4158952731</v>
+        <v>230809.7960282841</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>44355034.48</v>
+        <v>42308648.38</v>
       </c>
       <c r="C32">
-        <v>27588</v>
+        <v>27371</v>
       </c>
       <c r="D32">
-        <v>3583</v>
+        <v>3306</v>
       </c>
       <c r="E32">
-        <v>1295</v>
+        <v>1196</v>
       </c>
       <c r="F32">
-        <v>2309</v>
+        <v>2315</v>
       </c>
       <c r="G32">
-        <v>30377</v>
+        <v>30191</v>
       </c>
       <c r="H32">
-        <v>73317588</v>
+        <v>74544103</v>
       </c>
       <c r="I32">
-        <v>228548.9404833193</v>
+        <v>221021.4979973087</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>42286424.96</v>
+        <v>47024243.96</v>
       </c>
       <c r="C33">
-        <v>27432</v>
+        <v>27408</v>
       </c>
       <c r="D33">
-        <v>3358</v>
+        <v>3368</v>
       </c>
       <c r="E33">
-        <v>1150</v>
+        <v>1285</v>
       </c>
       <c r="F33">
-        <v>2416</v>
+        <v>2388</v>
       </c>
       <c r="G33">
-        <v>30248</v>
+        <v>30325</v>
       </c>
       <c r="H33">
-        <v>77648094</v>
+        <v>70405126</v>
       </c>
       <c r="I33">
-        <v>226916.6975906457</v>
+        <v>227567.4671015024</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>46951951.06</v>
+        <v>49130413.12</v>
       </c>
       <c r="C34">
-        <v>27463</v>
+        <v>27278</v>
       </c>
       <c r="D34">
-        <v>3551</v>
+        <v>3322</v>
       </c>
       <c r="E34">
-        <v>1326</v>
+        <v>1282</v>
       </c>
       <c r="F34">
-        <v>2385</v>
+        <v>2345</v>
       </c>
       <c r="G34">
-        <v>30328</v>
+        <v>30100</v>
       </c>
       <c r="H34">
-        <v>74819867</v>
+        <v>70283532</v>
       </c>
       <c r="I34">
-        <v>231573.2854696654</v>
+        <v>238440.4682989064</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>51828769.22</v>
+        <v>41379321.86</v>
       </c>
       <c r="C35">
-        <v>27464</v>
+        <v>27018</v>
       </c>
       <c r="D35">
-        <v>3646</v>
+        <v>3203</v>
       </c>
       <c r="E35">
-        <v>1269</v>
+        <v>1341</v>
       </c>
       <c r="F35">
-        <v>2407</v>
+        <v>2632</v>
       </c>
       <c r="G35">
-        <v>30202</v>
+        <v>29979</v>
       </c>
       <c r="H35">
-        <v>69765149</v>
+        <v>69329704</v>
       </c>
       <c r="I35">
-        <v>238579.7409132387</v>
+        <v>226743.8526546496</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1418,28 +1418,28 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>43696132.54</v>
+        <v>38450606.59999999</v>
       </c>
       <c r="C36">
-        <v>27354</v>
+        <v>27416</v>
       </c>
       <c r="D36">
-        <v>3679</v>
+        <v>3288</v>
       </c>
       <c r="E36">
-        <v>1426</v>
+        <v>1317</v>
       </c>
       <c r="F36">
-        <v>2624</v>
+        <v>2542</v>
       </c>
       <c r="G36">
-        <v>30109</v>
+        <v>30246</v>
       </c>
       <c r="H36">
-        <v>71308752</v>
+        <v>74532647</v>
       </c>
       <c r="I36">
-        <v>235124.2281575329</v>
+        <v>225925.729811663</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1447,28 +1447,28 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>42927745.22</v>
+        <v>48255181.96</v>
       </c>
       <c r="C37">
-        <v>27111</v>
+        <v>27003</v>
       </c>
       <c r="D37">
-        <v>3537</v>
+        <v>3651</v>
       </c>
       <c r="E37">
-        <v>1380</v>
+        <v>1488</v>
       </c>
       <c r="F37">
-        <v>2493</v>
+        <v>2642</v>
       </c>
       <c r="G37">
-        <v>29906</v>
+        <v>29755</v>
       </c>
       <c r="H37">
-        <v>70260495</v>
+        <v>67394509</v>
       </c>
       <c r="I37">
-        <v>234017.2974970513</v>
+        <v>244097.3525150095</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1476,28 +1476,28 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>43676181.54</v>
+        <v>50516338.38</v>
       </c>
       <c r="C38">
-        <v>27243</v>
+        <v>27256</v>
       </c>
       <c r="D38">
-        <v>3613</v>
+        <v>3540</v>
       </c>
       <c r="E38">
-        <v>1207</v>
+        <v>1393</v>
       </c>
       <c r="F38">
-        <v>2538</v>
+        <v>2709</v>
       </c>
       <c r="G38">
-        <v>30131</v>
+        <v>29972</v>
       </c>
       <c r="H38">
-        <v>68387141</v>
+        <v>67613325</v>
       </c>
       <c r="I38">
-        <v>233402.0124259846</v>
+        <v>231236.3505392891</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1505,28 +1505,28 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>38407647.8</v>
+        <v>36235922.38</v>
       </c>
       <c r="C39">
-        <v>27259</v>
+        <v>27206</v>
       </c>
       <c r="D39">
-        <v>3518</v>
+        <v>3689</v>
       </c>
       <c r="E39">
-        <v>1496</v>
+        <v>1462</v>
       </c>
       <c r="F39">
-        <v>2845</v>
+        <v>2705</v>
       </c>
       <c r="G39">
-        <v>29968</v>
+        <v>30039</v>
       </c>
       <c r="H39">
-        <v>74201525</v>
+        <v>72104096</v>
       </c>
       <c r="I39">
-        <v>234733.2405152652</v>
+        <v>226455.4580733787</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1534,28 +1534,28 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>51035054.06</v>
+        <v>44226003.54000001</v>
       </c>
       <c r="C40">
-        <v>27682</v>
+        <v>27131</v>
       </c>
       <c r="D40">
-        <v>3562</v>
+        <v>3603</v>
       </c>
       <c r="E40">
-        <v>1135</v>
+        <v>1352</v>
       </c>
       <c r="F40">
-        <v>2212</v>
+        <v>2692</v>
       </c>
       <c r="G40">
-        <v>30494</v>
+        <v>29888</v>
       </c>
       <c r="H40">
-        <v>73053903</v>
+        <v>69867296</v>
       </c>
       <c r="I40">
-        <v>235026.5209000132</v>
+        <v>227766.0272853186</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,28 +1563,28 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>38951661.38</v>
+        <v>39808443.08</v>
       </c>
       <c r="C41">
-        <v>27327</v>
+        <v>26843</v>
       </c>
       <c r="D41">
-        <v>3593</v>
+        <v>3408</v>
       </c>
       <c r="E41">
-        <v>1310</v>
+        <v>1498</v>
       </c>
       <c r="F41">
-        <v>2345</v>
+        <v>2965</v>
       </c>
       <c r="G41">
-        <v>30279</v>
+        <v>29568</v>
       </c>
       <c r="H41">
-        <v>78634268</v>
+        <v>71200260</v>
       </c>
       <c r="I41">
-        <v>220456.3301342825</v>
+        <v>224852.4703136488</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1592,28 +1592,28 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>36499701.86</v>
+        <v>42468060.8</v>
       </c>
       <c r="C42">
-        <v>27120</v>
+        <v>27195</v>
       </c>
       <c r="D42">
-        <v>3654</v>
+        <v>3687</v>
       </c>
       <c r="E42">
-        <v>1512</v>
+        <v>1453</v>
       </c>
       <c r="F42">
-        <v>2810</v>
+        <v>2649</v>
       </c>
       <c r="G42">
-        <v>29973</v>
+        <v>30058</v>
       </c>
       <c r="H42">
-        <v>74745350</v>
+        <v>72637163</v>
       </c>
       <c r="I42">
-        <v>229265.5523958044</v>
+        <v>230139.3365057172</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1621,28 +1621,28 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>45939755.8</v>
+        <v>46511553.38</v>
       </c>
       <c r="C43">
-        <v>27424</v>
+        <v>27474</v>
       </c>
       <c r="D43">
-        <v>3687</v>
+        <v>3605</v>
       </c>
       <c r="E43">
-        <v>1319</v>
+        <v>1244</v>
       </c>
       <c r="F43">
-        <v>2553</v>
+        <v>2256</v>
       </c>
       <c r="G43">
-        <v>30186</v>
+        <v>30384</v>
       </c>
       <c r="H43">
-        <v>74134226</v>
+        <v>71551500</v>
       </c>
       <c r="I43">
-        <v>225938.8806497237</v>
+        <v>225043.5793476524</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1650,28 +1650,28 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>44050490.22</v>
+        <v>47228120.8</v>
       </c>
       <c r="C44">
-        <v>27236</v>
+        <v>27258</v>
       </c>
       <c r="D44">
-        <v>3483</v>
+        <v>3489</v>
       </c>
       <c r="E44">
-        <v>1372</v>
+        <v>1354</v>
       </c>
       <c r="F44">
-        <v>2698</v>
+        <v>2651</v>
       </c>
       <c r="G44">
-        <v>29978</v>
+        <v>30042</v>
       </c>
       <c r="H44">
-        <v>70002697</v>
+        <v>71517990</v>
       </c>
       <c r="I44">
-        <v>232030.706662217</v>
+        <v>230607.8275539038</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1679,28 +1679,28 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>39226038.02</v>
+        <v>44323136.64</v>
       </c>
       <c r="C45">
-        <v>27304</v>
+        <v>27141</v>
       </c>
       <c r="D45">
-        <v>3344</v>
+        <v>3627</v>
       </c>
       <c r="E45">
-        <v>1196</v>
+        <v>1461</v>
       </c>
       <c r="F45">
-        <v>2389</v>
+        <v>2846</v>
       </c>
       <c r="G45">
-        <v>30327</v>
+        <v>29934</v>
       </c>
       <c r="H45">
-        <v>72457820</v>
+        <v>70453133</v>
       </c>
       <c r="I45">
-        <v>219423.3138189964</v>
+        <v>230931.5418074719</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1708,28 +1708,28 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>50635623.28</v>
+        <v>36558687.38</v>
       </c>
       <c r="C46">
-        <v>27306</v>
+        <v>27092</v>
       </c>
       <c r="D46">
-        <v>3393</v>
+        <v>3478</v>
       </c>
       <c r="E46">
-        <v>1296</v>
+        <v>1190</v>
       </c>
       <c r="F46">
-        <v>2522</v>
+        <v>2647</v>
       </c>
       <c r="G46">
-        <v>29994</v>
+        <v>29928</v>
       </c>
       <c r="H46">
-        <v>69352140</v>
+        <v>69757511</v>
       </c>
       <c r="I46">
-        <v>224852.6430682963</v>
+        <v>224868.8939346157</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1737,28 +1737,28 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>33033542.12</v>
+        <v>53386536.54</v>
       </c>
       <c r="C47">
-        <v>27149</v>
+        <v>27186</v>
       </c>
       <c r="D47">
-        <v>3551</v>
+        <v>3535</v>
       </c>
       <c r="E47">
-        <v>1392</v>
+        <v>1266</v>
       </c>
       <c r="F47">
-        <v>2831</v>
+        <v>2404</v>
       </c>
       <c r="G47">
-        <v>30015</v>
+        <v>30039</v>
       </c>
       <c r="H47">
-        <v>71864380</v>
+        <v>66860818</v>
       </c>
       <c r="I47">
-        <v>222130.8445477563</v>
+        <v>233567.9419115185</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1766,28 +1766,28 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>43445110.96</v>
+        <v>47127768.54</v>
       </c>
       <c r="C48">
-        <v>27266</v>
+        <v>27539</v>
       </c>
       <c r="D48">
-        <v>3570</v>
+        <v>3766</v>
       </c>
       <c r="E48">
-        <v>1284</v>
+        <v>1224</v>
       </c>
       <c r="F48">
-        <v>2623</v>
+        <v>2446</v>
       </c>
       <c r="G48">
-        <v>30140</v>
+        <v>30251</v>
       </c>
       <c r="H48">
-        <v>70628029</v>
+        <v>71953296</v>
       </c>
       <c r="I48">
-        <v>223264.4445819922</v>
+        <v>243990.1737801914</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1795,28 +1795,28 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>42968429.06</v>
+        <v>32208000.96</v>
       </c>
       <c r="C49">
-        <v>27579</v>
+        <v>26921</v>
       </c>
       <c r="D49">
-        <v>3609</v>
+        <v>3343</v>
       </c>
       <c r="E49">
-        <v>1260</v>
+        <v>1400</v>
       </c>
       <c r="F49">
-        <v>2335</v>
+        <v>2932</v>
       </c>
       <c r="G49">
-        <v>30443</v>
+        <v>29750</v>
       </c>
       <c r="H49">
-        <v>76679070</v>
+        <v>78954463</v>
       </c>
       <c r="I49">
-        <v>223329.8820597576</v>
+        <v>216673.3150399586</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1824,28 +1824,28 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>50880532.06</v>
+        <v>44465920.8</v>
       </c>
       <c r="C50">
-        <v>27075</v>
+        <v>27411</v>
       </c>
       <c r="D50">
-        <v>3889</v>
+        <v>3547</v>
       </c>
       <c r="E50">
-        <v>1339</v>
+        <v>1321</v>
       </c>
       <c r="F50">
-        <v>2567</v>
+        <v>2505</v>
       </c>
       <c r="G50">
-        <v>29848</v>
+        <v>30286</v>
       </c>
       <c r="H50">
-        <v>65408091</v>
+        <v>73134029</v>
       </c>
       <c r="I50">
-        <v>231913.6567911746</v>
+        <v>224201.9547513594</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1853,28 +1853,28 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>44604047.06</v>
+        <v>40480002.22</v>
       </c>
       <c r="C51">
-        <v>27082</v>
+        <v>27312</v>
       </c>
       <c r="D51">
-        <v>3601</v>
+        <v>3594</v>
       </c>
       <c r="E51">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="F51">
-        <v>2623</v>
+        <v>2796</v>
       </c>
       <c r="G51">
-        <v>29927</v>
+        <v>30144</v>
       </c>
       <c r="H51">
-        <v>70292878</v>
+        <v>67709890</v>
       </c>
       <c r="I51">
-        <v>227237.4287875994</v>
+        <v>229652.9171753802</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1882,28 +1882,28 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>39481009.06</v>
+        <v>40926039.54</v>
       </c>
       <c r="C52">
-        <v>27382</v>
+        <v>27206</v>
       </c>
       <c r="D52">
-        <v>3382</v>
+        <v>3411</v>
       </c>
       <c r="E52">
-        <v>1260</v>
+        <v>1296</v>
       </c>
       <c r="F52">
-        <v>2370</v>
+        <v>2531</v>
       </c>
       <c r="G52">
-        <v>30244</v>
+        <v>30069</v>
       </c>
       <c r="H52">
-        <v>78582650</v>
+        <v>72590456</v>
       </c>
       <c r="I52">
-        <v>223828.9936561031</v>
+        <v>220237.3653999748</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -1911,28 +1911,28 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>51934727.06</v>
+        <v>41514169.12</v>
       </c>
       <c r="C53">
-        <v>27522</v>
+        <v>27247</v>
       </c>
       <c r="D53">
-        <v>3628</v>
+        <v>3591</v>
       </c>
       <c r="E53">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="F53">
-        <v>2449</v>
+        <v>2709</v>
       </c>
       <c r="G53">
-        <v>30429</v>
+        <v>30073</v>
       </c>
       <c r="H53">
-        <v>68792923</v>
+        <v>72536166</v>
       </c>
       <c r="I53">
-        <v>225789.3452311055</v>
+        <v>232439.3209047031</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -1940,28 +1940,28 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>41241620.8</v>
+        <v>37648177.54</v>
       </c>
       <c r="C54">
-        <v>27338</v>
+        <v>27476</v>
       </c>
       <c r="D54">
-        <v>3395</v>
+        <v>3727</v>
       </c>
       <c r="E54">
-        <v>1393</v>
+        <v>1334</v>
       </c>
       <c r="F54">
-        <v>2576</v>
+        <v>2528</v>
       </c>
       <c r="G54">
-        <v>30238</v>
+        <v>30403</v>
       </c>
       <c r="H54">
-        <v>74812740</v>
+        <v>75297564</v>
       </c>
       <c r="I54">
-        <v>229833.3788174354</v>
+        <v>220714.3059368409</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -1969,28 +1969,28 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>54162944.28</v>
+        <v>42613530.54000001</v>
       </c>
       <c r="C55">
-        <v>27677</v>
+        <v>27355</v>
       </c>
       <c r="D55">
-        <v>3269</v>
+        <v>3487</v>
       </c>
       <c r="E55">
-        <v>1181</v>
+        <v>1370</v>
       </c>
       <c r="F55">
-        <v>2312</v>
+        <v>2481</v>
       </c>
       <c r="G55">
-        <v>30526</v>
+        <v>30364</v>
       </c>
       <c r="H55">
-        <v>72595313</v>
+        <v>75178784</v>
       </c>
       <c r="I55">
-        <v>231472.4849179076</v>
+        <v>216492.7138028599</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -1998,28 +1998,28 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>50007323.38</v>
+        <v>44131048.38</v>
       </c>
       <c r="C56">
-        <v>27101</v>
+        <v>27367</v>
       </c>
       <c r="D56">
-        <v>3684</v>
+        <v>3513</v>
       </c>
       <c r="E56">
-        <v>1459</v>
+        <v>1168</v>
       </c>
       <c r="F56">
-        <v>2644</v>
+        <v>2456</v>
       </c>
       <c r="G56">
-        <v>29771</v>
+        <v>30295</v>
       </c>
       <c r="H56">
-        <v>67827095</v>
+        <v>71605511</v>
       </c>
       <c r="I56">
-        <v>228305.28918091</v>
+        <v>227002.073918696</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2027,28 +2027,28 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>39046169.8</v>
+        <v>36140644.22</v>
       </c>
       <c r="C57">
-        <v>27375</v>
+        <v>27275</v>
       </c>
       <c r="D57">
-        <v>3580</v>
+        <v>3550</v>
       </c>
       <c r="E57">
-        <v>1211</v>
+        <v>1458</v>
       </c>
       <c r="F57">
-        <v>2448</v>
+        <v>2667</v>
       </c>
       <c r="G57">
-        <v>30191</v>
+        <v>30068</v>
       </c>
       <c r="H57">
-        <v>73007002</v>
+        <v>73346845</v>
       </c>
       <c r="I57">
-        <v>229921.4970548073</v>
+        <v>227066.1140538293</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2056,28 +2056,28 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>45298424.38</v>
+        <v>42599111.8</v>
       </c>
       <c r="C58">
-        <v>27620</v>
+        <v>27685</v>
       </c>
       <c r="D58">
-        <v>3505</v>
+        <v>3314</v>
       </c>
       <c r="E58">
-        <v>1264</v>
+        <v>1183</v>
       </c>
       <c r="F58">
-        <v>2543</v>
+        <v>2203</v>
       </c>
       <c r="G58">
-        <v>30551</v>
+        <v>30732</v>
       </c>
       <c r="H58">
-        <v>77268300</v>
+        <v>77328965</v>
       </c>
       <c r="I58">
-        <v>232187.8379907707</v>
+        <v>214559.9458620725</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2085,28 +2085,28 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>44625915.28</v>
+        <v>48166039.8</v>
       </c>
       <c r="C59">
-        <v>27341</v>
+        <v>27343</v>
       </c>
       <c r="D59">
-        <v>3612</v>
+        <v>3306</v>
       </c>
       <c r="E59">
-        <v>1474</v>
+        <v>1278</v>
       </c>
       <c r="F59">
-        <v>2768</v>
+        <v>2461</v>
       </c>
       <c r="G59">
-        <v>30094</v>
+        <v>30088</v>
       </c>
       <c r="H59">
-        <v>68793591</v>
+        <v>69970466</v>
       </c>
       <c r="I59">
-        <v>234598.7088074296</v>
+        <v>228749.2264215189</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2114,28 +2114,28 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>37470535.02</v>
+        <v>44906045.54</v>
       </c>
       <c r="C60">
-        <v>26903</v>
+        <v>27341</v>
       </c>
       <c r="D60">
-        <v>3247</v>
+        <v>3621</v>
       </c>
       <c r="E60">
-        <v>1421</v>
+        <v>1353</v>
       </c>
       <c r="F60">
-        <v>2829</v>
+        <v>2470</v>
       </c>
       <c r="G60">
-        <v>29646</v>
+        <v>30153</v>
       </c>
       <c r="H60">
-        <v>69873428</v>
+        <v>67539809</v>
       </c>
       <c r="I60">
-        <v>222083.256761986</v>
+        <v>233231.7137503121</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2143,28 +2143,28 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>41901982.96</v>
+        <v>44519469.8</v>
       </c>
       <c r="C61">
-        <v>27347</v>
+        <v>27158</v>
       </c>
       <c r="D61">
-        <v>3590</v>
+        <v>3668</v>
       </c>
       <c r="E61">
-        <v>1214</v>
+        <v>1260</v>
       </c>
       <c r="F61">
-        <v>2523</v>
+        <v>2487</v>
       </c>
       <c r="G61">
-        <v>30331</v>
+        <v>29925</v>
       </c>
       <c r="H61">
-        <v>73990089</v>
+        <v>71364651</v>
       </c>
       <c r="I61">
-        <v>224253.8226733481</v>
+        <v>231336.6094910726</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2172,28 +2172,28 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>57546567.8</v>
+        <v>45657484.54</v>
       </c>
       <c r="C62">
-        <v>27504</v>
+        <v>27495</v>
       </c>
       <c r="D62">
-        <v>3576</v>
+        <v>3638</v>
       </c>
       <c r="E62">
-        <v>1380</v>
+        <v>1153</v>
       </c>
       <c r="F62">
-        <v>2414</v>
+        <v>2234</v>
       </c>
       <c r="G62">
-        <v>30348</v>
+        <v>30452</v>
       </c>
       <c r="H62">
-        <v>66095253</v>
+        <v>74595003</v>
       </c>
       <c r="I62">
-        <v>233367.294109803</v>
+        <v>224751.9085146114</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2201,28 +2201,28 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>31847357.06</v>
+        <v>35329651.8</v>
       </c>
       <c r="C63">
-        <v>27105</v>
+        <v>27296</v>
       </c>
       <c r="D63">
-        <v>3604</v>
+        <v>3587</v>
       </c>
       <c r="E63">
-        <v>1425</v>
+        <v>1186</v>
       </c>
       <c r="F63">
-        <v>2914</v>
+        <v>2285</v>
       </c>
       <c r="G63">
-        <v>29923</v>
+        <v>30274</v>
       </c>
       <c r="H63">
-        <v>75479563</v>
+        <v>79100330</v>
       </c>
       <c r="I63">
-        <v>225970.1742623145</v>
+        <v>225960.6197599946</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2230,28 +2230,28 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>44469987.96</v>
+        <v>40975406.54000001</v>
       </c>
       <c r="C64">
-        <v>27622</v>
+        <v>27518</v>
       </c>
       <c r="D64">
-        <v>3414</v>
+        <v>3512</v>
       </c>
       <c r="E64">
-        <v>1169</v>
+        <v>1216</v>
       </c>
       <c r="F64">
-        <v>2301</v>
+        <v>2505</v>
       </c>
       <c r="G64">
-        <v>30475</v>
+        <v>30517</v>
       </c>
       <c r="H64">
-        <v>78655353</v>
+        <v>76424851</v>
       </c>
       <c r="I64">
-        <v>226620.0745683189</v>
+        <v>226430.3250370492</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2259,28 +2259,28 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>39351912.76</v>
+        <v>40207200.12</v>
       </c>
       <c r="C65">
-        <v>27195</v>
+        <v>27423</v>
       </c>
       <c r="D65">
-        <v>3462</v>
+        <v>3289</v>
       </c>
       <c r="E65">
-        <v>1355</v>
+        <v>1291</v>
       </c>
       <c r="F65">
-        <v>2630</v>
+        <v>2494</v>
       </c>
       <c r="G65">
-        <v>30088</v>
+        <v>30312</v>
       </c>
       <c r="H65">
-        <v>74944573</v>
+        <v>72306712</v>
       </c>
       <c r="I65">
-        <v>221376.8218661456</v>
+        <v>234494.9902651348</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2288,28 +2288,28 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>47907557.64</v>
+        <v>42468526.8</v>
       </c>
       <c r="C66">
-        <v>27423</v>
+        <v>26887</v>
       </c>
       <c r="D66">
-        <v>3455</v>
+        <v>3474</v>
       </c>
       <c r="E66">
-        <v>1239</v>
+        <v>1414</v>
       </c>
       <c r="F66">
-        <v>2271</v>
+        <v>2769</v>
       </c>
       <c r="G66">
-        <v>30181</v>
+        <v>29700</v>
       </c>
       <c r="H66">
-        <v>71973426</v>
+        <v>66941481</v>
       </c>
       <c r="I66">
-        <v>228970.8108510547</v>
+        <v>224902.3291153075</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2317,28 +2317,28 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>38685754.12</v>
+        <v>32867172.38</v>
       </c>
       <c r="C67">
-        <v>26925</v>
+        <v>26927</v>
       </c>
       <c r="D67">
-        <v>3632</v>
+        <v>3489</v>
       </c>
       <c r="E67">
-        <v>1390</v>
+        <v>1441</v>
       </c>
       <c r="F67">
-        <v>2845</v>
+        <v>2800</v>
       </c>
       <c r="G67">
-        <v>29812</v>
+        <v>29817</v>
       </c>
       <c r="H67">
-        <v>66235403</v>
+        <v>72711912</v>
       </c>
       <c r="I67">
-        <v>220511.0035759842</v>
+        <v>225546.5686718003</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2346,28 +2346,28 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>50695908.12</v>
+        <v>46287720.7</v>
       </c>
       <c r="C68">
-        <v>27452</v>
+        <v>26922</v>
       </c>
       <c r="D68">
-        <v>3634</v>
+        <v>3573</v>
       </c>
       <c r="E68">
-        <v>1299</v>
+        <v>1503</v>
       </c>
       <c r="F68">
-        <v>2450</v>
+        <v>2865</v>
       </c>
       <c r="G68">
-        <v>30208</v>
+        <v>29587</v>
       </c>
       <c r="H68">
-        <v>72172280</v>
+        <v>67673113</v>
       </c>
       <c r="I68">
-        <v>240123.3481698204</v>
+        <v>230110.9636921532</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2375,28 +2375,28 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>45683707.38</v>
+        <v>41669553.48</v>
       </c>
       <c r="C69">
-        <v>27156</v>
+        <v>27119</v>
       </c>
       <c r="D69">
-        <v>3546</v>
+        <v>3723</v>
       </c>
       <c r="E69">
-        <v>1371</v>
+        <v>1482</v>
       </c>
       <c r="F69">
-        <v>2632</v>
+        <v>2872</v>
       </c>
       <c r="G69">
-        <v>30000</v>
+        <v>29866</v>
       </c>
       <c r="H69">
-        <v>71134596</v>
+        <v>69658540</v>
       </c>
       <c r="I69">
-        <v>223866.2396335015</v>
+        <v>223882.1116613991</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2404,28 +2404,28 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>41174072.8</v>
+        <v>44138107.64</v>
       </c>
       <c r="C70">
-        <v>27551</v>
+        <v>27226</v>
       </c>
       <c r="D70">
-        <v>3215</v>
+        <v>3607</v>
       </c>
       <c r="E70">
-        <v>1153</v>
+        <v>1333</v>
       </c>
       <c r="F70">
-        <v>2404</v>
+        <v>2523</v>
       </c>
       <c r="G70">
-        <v>30447</v>
+        <v>30061</v>
       </c>
       <c r="H70">
-        <v>73580083</v>
+        <v>71622620</v>
       </c>
       <c r="I70">
-        <v>217550.7203624372</v>
+        <v>235460.6284443004</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2433,28 +2433,28 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>39528374.64</v>
+        <v>35835298.38</v>
       </c>
       <c r="C71">
-        <v>27180</v>
+        <v>26909</v>
       </c>
       <c r="D71">
-        <v>3604</v>
+        <v>3787</v>
       </c>
       <c r="E71">
-        <v>1282</v>
+        <v>1384</v>
       </c>
       <c r="F71">
-        <v>2622</v>
+        <v>2882</v>
       </c>
       <c r="G71">
-        <v>29996</v>
+        <v>29791</v>
       </c>
       <c r="H71">
-        <v>70063356</v>
+        <v>70524110</v>
       </c>
       <c r="I71">
-        <v>226129.1257082375</v>
+        <v>221033.7799375287</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2462,28 +2462,28 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>39844610.7</v>
+        <v>42181588.38</v>
       </c>
       <c r="C72">
-        <v>27025</v>
+        <v>27308</v>
       </c>
       <c r="D72">
-        <v>3372</v>
+        <v>3620</v>
       </c>
       <c r="E72">
-        <v>1413</v>
+        <v>1362</v>
       </c>
       <c r="F72">
-        <v>2716</v>
+        <v>2590</v>
       </c>
       <c r="G72">
-        <v>29877</v>
+        <v>30222</v>
       </c>
       <c r="H72">
-        <v>70624222</v>
+        <v>73300498</v>
       </c>
       <c r="I72">
-        <v>228235.3083235511</v>
+        <v>225363.1254732054</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2491,28 +2491,28 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>47982890.22</v>
+        <v>44629486.12</v>
       </c>
       <c r="C73">
-        <v>27181</v>
+        <v>27482</v>
       </c>
       <c r="D73">
-        <v>3465</v>
+        <v>3375</v>
       </c>
       <c r="E73">
-        <v>1319</v>
+        <v>1301</v>
       </c>
       <c r="F73">
-        <v>2515</v>
+        <v>2355</v>
       </c>
       <c r="G73">
-        <v>30020</v>
+        <v>30333</v>
       </c>
       <c r="H73">
-        <v>72378077</v>
+        <v>73381626</v>
       </c>
       <c r="I73">
-        <v>233804.5048773746</v>
+        <v>227664.1684103088</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2520,28 +2520,28 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>50066674.8</v>
+        <v>40186494.38</v>
       </c>
       <c r="C74">
-        <v>27590</v>
+        <v>27401</v>
       </c>
       <c r="D74">
-        <v>3357</v>
+        <v>3418</v>
       </c>
       <c r="E74">
-        <v>1293</v>
+        <v>1277</v>
       </c>
       <c r="F74">
-        <v>2474</v>
+        <v>2656</v>
       </c>
       <c r="G74">
-        <v>30497</v>
+        <v>30200</v>
       </c>
       <c r="H74">
-        <v>71670202</v>
+        <v>73410015</v>
       </c>
       <c r="I74">
-        <v>229024.2479313647</v>
+        <v>230335.7863530019</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2549,28 +2549,28 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>41109989.38</v>
+        <v>43517733.54</v>
       </c>
       <c r="C75">
-        <v>27252</v>
+        <v>26987</v>
       </c>
       <c r="D75">
-        <v>3373</v>
+        <v>3534</v>
       </c>
       <c r="E75">
-        <v>1358</v>
+        <v>1494</v>
       </c>
       <c r="F75">
-        <v>2618</v>
+        <v>2805</v>
       </c>
       <c r="G75">
-        <v>30006</v>
+        <v>29727</v>
       </c>
       <c r="H75">
-        <v>76937311</v>
+        <v>75038957</v>
       </c>
       <c r="I75">
-        <v>224569.4069537386</v>
+        <v>231745.7825669131</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2578,28 +2578,28 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>38853106.22</v>
+        <v>34402123.22</v>
       </c>
       <c r="C76">
-        <v>26666</v>
+        <v>27031</v>
       </c>
       <c r="D76">
-        <v>3438</v>
+        <v>3336</v>
       </c>
       <c r="E76">
-        <v>1478</v>
+        <v>1361</v>
       </c>
       <c r="F76">
-        <v>3092</v>
+        <v>3039</v>
       </c>
       <c r="G76">
-        <v>29260</v>
+        <v>29749</v>
       </c>
       <c r="H76">
-        <v>65504143</v>
+        <v>71461084</v>
       </c>
       <c r="I76">
-        <v>225720.2544840702</v>
+        <v>218081.9036432931</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2607,28 +2607,28 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>43743242.22</v>
+        <v>50034382.54000001</v>
       </c>
       <c r="C77">
-        <v>27240</v>
+        <v>27482</v>
       </c>
       <c r="D77">
-        <v>3406</v>
+        <v>3326</v>
       </c>
       <c r="E77">
-        <v>1348</v>
+        <v>1253</v>
       </c>
       <c r="F77">
-        <v>2687</v>
+        <v>2305</v>
       </c>
       <c r="G77">
-        <v>30080</v>
+        <v>30343</v>
       </c>
       <c r="H77">
-        <v>74006914</v>
+        <v>72650267</v>
       </c>
       <c r="I77">
-        <v>224183.8395792679</v>
+        <v>230248.4617690016</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2636,28 +2636,28 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>49728590.38</v>
+        <v>38485616.64</v>
       </c>
       <c r="C78">
-        <v>27584</v>
+        <v>27434</v>
       </c>
       <c r="D78">
-        <v>3652</v>
+        <v>3478</v>
       </c>
       <c r="E78">
-        <v>1362</v>
+        <v>1318</v>
       </c>
       <c r="F78">
-        <v>2381</v>
+        <v>2417</v>
       </c>
       <c r="G78">
-        <v>30352</v>
+        <v>30416</v>
       </c>
       <c r="H78">
-        <v>73280272</v>
+        <v>73986191</v>
       </c>
       <c r="I78">
-        <v>240673.8887036377</v>
+        <v>223987.6704104896</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2665,28 +2665,28 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>41929069.06</v>
+        <v>41103499.54</v>
       </c>
       <c r="C79">
-        <v>27101</v>
+        <v>27103</v>
       </c>
       <c r="D79">
-        <v>3796</v>
+        <v>3471</v>
       </c>
       <c r="E79">
-        <v>1477</v>
+        <v>1427</v>
       </c>
       <c r="F79">
-        <v>2647</v>
+        <v>2645</v>
       </c>
       <c r="G79">
-        <v>29910</v>
+        <v>29924</v>
       </c>
       <c r="H79">
-        <v>71265766</v>
+        <v>72322148</v>
       </c>
       <c r="I79">
-        <v>233471.7646014583</v>
+        <v>219537.5612317802</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2694,28 +2694,28 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>36780325.64</v>
+        <v>38246998.96</v>
       </c>
       <c r="C80">
-        <v>27328</v>
+        <v>27533</v>
       </c>
       <c r="D80">
-        <v>3384</v>
+        <v>3165</v>
       </c>
       <c r="E80">
-        <v>1352</v>
+        <v>1171</v>
       </c>
       <c r="F80">
-        <v>2570</v>
+        <v>2355</v>
       </c>
       <c r="G80">
-        <v>30207</v>
+        <v>30413</v>
       </c>
       <c r="H80">
-        <v>77226997</v>
+        <v>80009947</v>
       </c>
       <c r="I80">
-        <v>229922.4786009899</v>
+        <v>217910.7663556482</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2723,28 +2723,28 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>45393646.38</v>
+        <v>36418942.38</v>
       </c>
       <c r="C81">
-        <v>27247</v>
+        <v>27067</v>
       </c>
       <c r="D81">
-        <v>3242</v>
+        <v>3319</v>
       </c>
       <c r="E81">
-        <v>1276</v>
+        <v>1244</v>
       </c>
       <c r="F81">
-        <v>2603</v>
+        <v>2640</v>
       </c>
       <c r="G81">
-        <v>30039</v>
+        <v>29933</v>
       </c>
       <c r="H81">
-        <v>70700307</v>
+        <v>73535454</v>
       </c>
       <c r="I81">
-        <v>222488.3611293273</v>
+        <v>224464.7687490948</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2752,28 +2752,28 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>39942610.38</v>
+        <v>50020313.38</v>
       </c>
       <c r="C82">
-        <v>27559</v>
+        <v>27551</v>
       </c>
       <c r="D82">
-        <v>3624</v>
+        <v>3503</v>
       </c>
       <c r="E82">
-        <v>1217</v>
+        <v>1252</v>
       </c>
       <c r="F82">
-        <v>2425</v>
+        <v>2153</v>
       </c>
       <c r="G82">
-        <v>30352</v>
+        <v>30423</v>
       </c>
       <c r="H82">
-        <v>76887416</v>
+        <v>74247718</v>
       </c>
       <c r="I82">
-        <v>236161.4117244786</v>
+        <v>222860.3429390787</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2781,28 +2781,28 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>45815239.22</v>
+        <v>45501975.38</v>
       </c>
       <c r="C83">
-        <v>27480</v>
+        <v>27362</v>
       </c>
       <c r="D83">
-        <v>3654</v>
+        <v>3467</v>
       </c>
       <c r="E83">
-        <v>1352</v>
+        <v>1199</v>
       </c>
       <c r="F83">
-        <v>2604</v>
+        <v>2432</v>
       </c>
       <c r="G83">
-        <v>30346</v>
+        <v>30198</v>
       </c>
       <c r="H83">
-        <v>69169775</v>
+        <v>72586265</v>
       </c>
       <c r="I83">
-        <v>232871.8492888578</v>
+        <v>233905.1839433566</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2810,28 +2810,28 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>40232505.96</v>
+        <v>40825388.54000001</v>
       </c>
       <c r="C84">
-        <v>27338</v>
+        <v>27113</v>
       </c>
       <c r="D84">
-        <v>3415</v>
+        <v>3566</v>
       </c>
       <c r="E84">
-        <v>1240</v>
+        <v>1504</v>
       </c>
       <c r="F84">
-        <v>2456</v>
+        <v>2721</v>
       </c>
       <c r="G84">
-        <v>30266</v>
+        <v>29990</v>
       </c>
       <c r="H84">
-        <v>74405108</v>
+        <v>72168021</v>
       </c>
       <c r="I84">
-        <v>224890.0504118374</v>
+        <v>223739.7771699255</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2839,28 +2839,28 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>43141749.8</v>
+        <v>45157002.96</v>
       </c>
       <c r="C85">
-        <v>27395</v>
+        <v>27154</v>
       </c>
       <c r="D85">
-        <v>3639</v>
+        <v>3445</v>
       </c>
       <c r="E85">
-        <v>1358</v>
+        <v>1366</v>
       </c>
       <c r="F85">
-        <v>2576</v>
+        <v>2741</v>
       </c>
       <c r="G85">
-        <v>30219</v>
+        <v>29891</v>
       </c>
       <c r="H85">
-        <v>76176165</v>
+        <v>70290137</v>
       </c>
       <c r="I85">
-        <v>230026.8720889321</v>
+        <v>226104.1730905286</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2868,28 +2868,28 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>48973169.44</v>
+        <v>41934625.7</v>
       </c>
       <c r="C86">
-        <v>27142</v>
+        <v>27392</v>
       </c>
       <c r="D86">
-        <v>3467</v>
+        <v>3330</v>
       </c>
       <c r="E86">
-        <v>1441</v>
+        <v>1301</v>
       </c>
       <c r="F86">
-        <v>2775</v>
+        <v>2444</v>
       </c>
       <c r="G86">
-        <v>29886</v>
+        <v>30214</v>
       </c>
       <c r="H86">
-        <v>66994354</v>
+        <v>74494757</v>
       </c>
       <c r="I86">
-        <v>237038.633156174</v>
+        <v>226633.8169928212</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2897,28 +2897,28 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>37424033.54</v>
+        <v>45056223.54000001</v>
       </c>
       <c r="C87">
-        <v>26908</v>
+        <v>27186</v>
       </c>
       <c r="D87">
-        <v>3572</v>
+        <v>3690</v>
       </c>
       <c r="E87">
-        <v>1430</v>
+        <v>1306</v>
       </c>
       <c r="F87">
-        <v>2840</v>
+        <v>2586</v>
       </c>
       <c r="G87">
-        <v>29751</v>
+        <v>30087</v>
       </c>
       <c r="H87">
-        <v>68311125</v>
+        <v>71034920</v>
       </c>
       <c r="I87">
-        <v>226509.1065247004</v>
+        <v>225663.6810232014</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -2926,28 +2926,28 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>46270607.54</v>
+        <v>42379983.48</v>
       </c>
       <c r="C88">
-        <v>27390</v>
+        <v>27180</v>
       </c>
       <c r="D88">
-        <v>3484</v>
+        <v>3494</v>
       </c>
       <c r="E88">
-        <v>1273</v>
+        <v>1403</v>
       </c>
       <c r="F88">
-        <v>2412</v>
+        <v>2805</v>
       </c>
       <c r="G88">
-        <v>30240</v>
+        <v>29896</v>
       </c>
       <c r="H88">
-        <v>71282410</v>
+        <v>72632050</v>
       </c>
       <c r="I88">
-        <v>228345.9066023067</v>
+        <v>229843.4170364394</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -2955,28 +2955,28 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>44592469.06</v>
+        <v>48445592.24</v>
       </c>
       <c r="C89">
-        <v>27604</v>
+        <v>27457</v>
       </c>
       <c r="D89">
-        <v>3253</v>
+        <v>3376</v>
       </c>
       <c r="E89">
-        <v>1117</v>
+        <v>1223</v>
       </c>
       <c r="F89">
-        <v>2366</v>
+        <v>2548</v>
       </c>
       <c r="G89">
-        <v>30408</v>
+        <v>30217</v>
       </c>
       <c r="H89">
-        <v>77899454</v>
+        <v>67014417</v>
       </c>
       <c r="I89">
-        <v>223111.1291709059</v>
+        <v>226068.5143517514</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -2984,28 +2984,28 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>56467724.38</v>
+        <v>47215782.38</v>
       </c>
       <c r="C90">
-        <v>27305</v>
+        <v>27539</v>
       </c>
       <c r="D90">
-        <v>3512</v>
+        <v>3412</v>
       </c>
       <c r="E90">
-        <v>1354</v>
+        <v>1212</v>
       </c>
       <c r="F90">
-        <v>2446</v>
+        <v>2229</v>
       </c>
       <c r="G90">
-        <v>30018</v>
+        <v>30350</v>
       </c>
       <c r="H90">
-        <v>69319416</v>
+        <v>74003804</v>
       </c>
       <c r="I90">
-        <v>227666.9728730816</v>
+        <v>227744.3396533416</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3013,28 +3013,28 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>39848141.48</v>
+        <v>45773461.08</v>
       </c>
       <c r="C91">
-        <v>27665</v>
+        <v>27347</v>
       </c>
       <c r="D91">
-        <v>3682</v>
+        <v>3473</v>
       </c>
       <c r="E91">
-        <v>1214</v>
+        <v>1325</v>
       </c>
       <c r="F91">
-        <v>2323</v>
+        <v>2462</v>
       </c>
       <c r="G91">
-        <v>30570</v>
+        <v>30170</v>
       </c>
       <c r="H91">
-        <v>80200167</v>
+        <v>71079974</v>
       </c>
       <c r="I91">
-        <v>225429.7616924594</v>
+        <v>225771.6181886386</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3042,28 +3042,28 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>39662007.8</v>
+        <v>42109793.12</v>
       </c>
       <c r="C92">
-        <v>27277</v>
+        <v>27352</v>
       </c>
       <c r="D92">
-        <v>3413</v>
+        <v>3503</v>
       </c>
       <c r="E92">
-        <v>1360</v>
+        <v>1230</v>
       </c>
       <c r="F92">
-        <v>2604</v>
+        <v>2500</v>
       </c>
       <c r="G92">
-        <v>30205</v>
+        <v>30207</v>
       </c>
       <c r="H92">
-        <v>75807925</v>
+        <v>75594741</v>
       </c>
       <c r="I92">
-        <v>218869.1733295138</v>
+        <v>227465.4826077822</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3071,28 +3071,28 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>51550133.54000001</v>
+        <v>36092090.8</v>
       </c>
       <c r="C93">
-        <v>27485</v>
+        <v>27089</v>
       </c>
       <c r="D93">
-        <v>3621</v>
+        <v>3331</v>
       </c>
       <c r="E93">
-        <v>1214</v>
+        <v>1280</v>
       </c>
       <c r="F93">
-        <v>2439</v>
+        <v>2474</v>
       </c>
       <c r="G93">
-        <v>30332</v>
+        <v>30116</v>
       </c>
       <c r="H93">
-        <v>68924675</v>
+        <v>73506733</v>
       </c>
       <c r="I93">
-        <v>235113.3550898065</v>
+        <v>214421.3675967188</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3100,28 +3100,28 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>37988235.48</v>
+        <v>41782957.22</v>
       </c>
       <c r="C94">
-        <v>27352</v>
+        <v>27148</v>
       </c>
       <c r="D94">
-        <v>3545</v>
+        <v>3491</v>
       </c>
       <c r="E94">
-        <v>1326</v>
+        <v>1345</v>
       </c>
       <c r="F94">
-        <v>2678</v>
+        <v>2679</v>
       </c>
       <c r="G94">
-        <v>30157</v>
+        <v>29915</v>
       </c>
       <c r="H94">
-        <v>77471860</v>
+        <v>70054894</v>
       </c>
       <c r="I94">
-        <v>230052.4120661134</v>
+        <v>233849.3905916213</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3129,28 +3129,28 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>50620148.54000001</v>
+        <v>42828365.22</v>
       </c>
       <c r="C95">
-        <v>27325</v>
+        <v>27357</v>
       </c>
       <c r="D95">
-        <v>3441</v>
+        <v>3359</v>
       </c>
       <c r="E95">
-        <v>1318</v>
+        <v>1407</v>
       </c>
       <c r="F95">
-        <v>2612</v>
+        <v>2647</v>
       </c>
       <c r="G95">
-        <v>30007</v>
+        <v>30163</v>
       </c>
       <c r="H95">
-        <v>68334754</v>
+        <v>72810616</v>
       </c>
       <c r="I95">
-        <v>231097.2441273248</v>
+        <v>225119.2597403976</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3158,28 +3158,28 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>52014067.74</v>
+        <v>36779875.53999999</v>
       </c>
       <c r="C96">
-        <v>27256</v>
+        <v>27548</v>
       </c>
       <c r="D96">
-        <v>3468</v>
+        <v>3196</v>
       </c>
       <c r="E96">
-        <v>1385</v>
+        <v>1222</v>
       </c>
       <c r="F96">
-        <v>2544</v>
+        <v>2458</v>
       </c>
       <c r="G96">
-        <v>30015</v>
+        <v>30432</v>
       </c>
       <c r="H96">
-        <v>70137829</v>
+        <v>78799955</v>
       </c>
       <c r="I96">
-        <v>232387.7117655136</v>
+        <v>221853.4930868319</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3187,28 +3187,28 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>42723052.96</v>
+        <v>42408576.8</v>
       </c>
       <c r="C97">
-        <v>27077</v>
+        <v>27147</v>
       </c>
       <c r="D97">
-        <v>3592</v>
+        <v>3415</v>
       </c>
       <c r="E97">
-        <v>1397</v>
+        <v>1402</v>
       </c>
       <c r="F97">
-        <v>2697</v>
+        <v>2707</v>
       </c>
       <c r="G97">
-        <v>29801</v>
+        <v>29916</v>
       </c>
       <c r="H97">
-        <v>69622227</v>
+        <v>72445785</v>
       </c>
       <c r="I97">
-        <v>228586.2477538923</v>
+        <v>222886.8190563861</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3216,28 +3216,28 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>44075522.96</v>
+        <v>35876446.54</v>
       </c>
       <c r="C98">
-        <v>27255</v>
+        <v>27276</v>
       </c>
       <c r="D98">
-        <v>3752</v>
+        <v>3637</v>
       </c>
       <c r="E98">
-        <v>1418</v>
+        <v>1319</v>
       </c>
       <c r="F98">
-        <v>2565</v>
+        <v>2398</v>
       </c>
       <c r="G98">
-        <v>30078</v>
+        <v>30252</v>
       </c>
       <c r="H98">
-        <v>68714531</v>
+        <v>76337097</v>
       </c>
       <c r="I98">
-        <v>238209.2811682824</v>
+        <v>217914.4847342416</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3245,28 +3245,28 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>35887277.54</v>
+        <v>40197564.22</v>
       </c>
       <c r="C99">
-        <v>27214</v>
+        <v>27032</v>
       </c>
       <c r="D99">
-        <v>3444</v>
+        <v>3242</v>
       </c>
       <c r="E99">
-        <v>1206</v>
+        <v>1407</v>
       </c>
       <c r="F99">
-        <v>2493</v>
+        <v>2603</v>
       </c>
       <c r="G99">
-        <v>30193</v>
+        <v>29965</v>
       </c>
       <c r="H99">
-        <v>77617092</v>
+        <v>73413100</v>
       </c>
       <c r="I99">
-        <v>218091.4499989783</v>
+        <v>219116.5092792841</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3274,28 +3274,28 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>45083079.96</v>
+        <v>45485188.54</v>
       </c>
       <c r="C100">
-        <v>27237</v>
+        <v>27483</v>
       </c>
       <c r="D100">
-        <v>3324</v>
+        <v>3488</v>
       </c>
       <c r="E100">
-        <v>1422</v>
+        <v>1205</v>
       </c>
       <c r="F100">
-        <v>2551</v>
+        <v>2284</v>
       </c>
       <c r="G100">
-        <v>29962</v>
+        <v>30321</v>
       </c>
       <c r="H100">
-        <v>72624579</v>
+        <v>75496205</v>
       </c>
       <c r="I100">
-        <v>226369.2553449989</v>
+        <v>231953.9450772103</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3303,28 +3303,28 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>44104612.38</v>
+        <v>40983954.8</v>
       </c>
       <c r="C101">
-        <v>27165</v>
+        <v>27016</v>
       </c>
       <c r="D101">
-        <v>3512</v>
+        <v>3380</v>
       </c>
       <c r="E101">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="F101">
-        <v>2353</v>
+        <v>2716</v>
       </c>
       <c r="G101">
-        <v>30111</v>
+        <v>29847</v>
       </c>
       <c r="H101">
-        <v>69408741</v>
+        <v>70470001</v>
       </c>
       <c r="I101">
-        <v>222059.361407152</v>
+        <v>222333.0632895711</v>
       </c>
     </row>
   </sheetData>
